--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>003567</t>
-  </si>
-  <si>
-    <t>华夏行业景气混合</t>
-  </si>
-  <si>
-    <t>72.57</t>
-  </si>
-  <si>
-    <t>88.96</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>2.0755</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.61</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,609 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1263,7 +1264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,17 +1275,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1294,14 +1315,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.5</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1310,14 +1353,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.61</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1326,13 +1391,1347 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>12.42</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.08</v>
       </c>
     </row>
@@ -549,6 +566,4696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H123"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9575</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5475</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>090015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>016257</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000279</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华商红利优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014141</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成新能源混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014142</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成新能源混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960018</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成内需增长混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159628</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家国证2000ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014051</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1930,7 +6637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2552,7 +7259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +7353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002865-钧达股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>30.44</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="D3" t="n">
-        <v>12.42</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>7.5</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.61</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.08</v>
       </c>
     </row>
@@ -566,6 +583,3558 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001951</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7757</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4594</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4312</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰民族新兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015285</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016251</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏远见成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016635</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国联安气候变化责任投资混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013842</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015696</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银绿色能源混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015286</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银产业转型一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016262</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013843</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华新锐成长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015392</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015391</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银新能源产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013892</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5255,7 +8824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6637,7 +10206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7259,7 +10828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7353,7 +10922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
